--- a/Couchdb/example.xlsx
+++ b/Couchdb/example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="3960" windowWidth="15180" windowHeight="10400" tabRatio="500"/>
+    <workbookView xWindow="10460" yWindow="3960" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
